--- a/manuscript/table/fw_table.xlsx
+++ b/manuscript/table/fw_table.xlsx
@@ -8,24 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anubhav/Google Drive/GitHub/C1_method_v2/manuscript/table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE67324-C3D1-7348-9E55-704F36D91575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB65567-ACEC-F14C-AFB6-BE476A24C889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23880" yWindow="500" windowWidth="23880" windowHeight="16180" xr2:uid="{5630FE5A-2415-C14B-A720-DAE3A8C2DA1A}"/>
+    <workbookView xWindow="41140" yWindow="2780" windowWidth="25120" windowHeight="16180" xr2:uid="{5630FE5A-2415-C14B-A720-DAE3A8C2DA1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$13</definedName>
+  </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
   <si>
     <t>Predation matrix source</t>
   </si>
@@ -87,9 +97,6 @@
     <t>$10^{-11}$ to $10^3$</t>
   </si>
   <si>
-    <t>$10^{-12}$ to $10^0$</t>
-  </si>
-  <si>
     <t>Proportion of presence of links correct</t>
   </si>
   <si>
@@ -124,9 +131,6 @@
   </si>
   <si>
     <t>Benguela Pelagic (Yodzis 1998)</t>
-  </si>
-  <si>
-    <t>Brose et al. (2008)</t>
   </si>
   <si>
     <t>Broadstone Stream (taxonomic aggregation) (Woodward and Hildrew 2001; Woodward
@@ -174,6 +178,9 @@
   </si>
   <si>
     <t>$10^{-6}$ to $10^4$</t>
+  </si>
+  <si>
+    <t>Brose et al. (2005)</t>
   </si>
 </sst>
 </file>
@@ -546,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E828A254-C7D5-3942-9CB6-40A36861DBE1}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -559,7 +566,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -580,21 +587,21 @@
         <v>11</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -612,18 +619,18 @@
         <v>0.54</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="187" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -641,18 +648,18 @@
         <v>0.4</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -670,18 +677,18 @@
         <v>0.09</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -693,24 +700,24 @@
         <v>0.08</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H5" s="1">
         <v>0.33</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>4</v>
@@ -728,18 +735,18 @@
         <v>0.13</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
@@ -757,18 +764,18 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>4</v>
@@ -786,18 +793,18 @@
         <v>0.36</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>4</v>
@@ -815,18 +822,18 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>7</v>
@@ -844,18 +851,18 @@
         <v>0.3</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>4</v>
@@ -873,47 +880,47 @@
         <v>0.46</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="1">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F12" s="1">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H12" s="1">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>4</v>
@@ -925,13 +932,13 @@
         <v>0.24</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H13" s="1">
         <v>0.83</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
